--- a/Data/KADE_results_Polycrisis_4_factors.xlsx
+++ b/Data/KADE_results_Polycrisis_4_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/Polycrisis-Q-method/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{2156D53E-6F55-4A91-93BD-2285391570D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCB044F0-CDA6-4FFD-9C38-DC30F30A5A9E}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{2156D53E-6F55-4A91-93BD-2285391570D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C87B9422-C048-4274-89EF-035A8255530C}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-300" windowWidth="29040" windowHeight="17520" tabRatio="648" firstSheet="31" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -1214,6 +1214,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17879,7 +17883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -23530,6 +23536,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B6:AH55">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:AJ55" numberStoredAsText="1"/>
@@ -24643,7 +24661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -41109,8 +41127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -43973,7 +43991,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
